--- a/Risk Matrix.xlsx
+++ b/Risk Matrix.xlsx
@@ -9,14 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Matrix" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Risk Factors</t>
   </si>
@@ -246,6 +243,18 @@
   </si>
   <si>
     <t>R70</t>
+  </si>
+  <si>
+    <t>Low: 1-2</t>
+  </si>
+  <si>
+    <t>Medium: 2-3</t>
+  </si>
+  <si>
+    <t>High: 3-4</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +323,20 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -367,6 +388,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -387,6 +460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -513,214 +592,214 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="33">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>3.45</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.03</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.84</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.22</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.23</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.27</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="67">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.55</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.03</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.07</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.07</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,11 +1033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2024584704"/>
-        <c:axId val="-2024578560"/>
+        <c:axId val="2110972336"/>
+        <c:axId val="2111359200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2024584704"/>
+        <c:axId val="2110972336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,12 +1061,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2024578560"/>
+        <c:crossAx val="2111359200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2024578560"/>
+        <c:axId val="2111359200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1090,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2024584704"/>
+        <c:crossAx val="2110972336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1669,19 +1748,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Risk Register"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1946,18 +2012,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1971,13 +2038,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(F2*100,(F2+1)*100)/100</f>
-        <v>3.68</v>
+        <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(F2*100,(F2+1)*100)/100</f>
+        <v>3.8</v>
       </c>
       <c r="C2" s="3">
         <v>0.4</v>
@@ -1985,14 +2052,17 @@
       <c r="F2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L2" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">RANDBETWEEN(F3*100,(F3+1)*100)/100</f>
-        <v>3.72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.16</v>
       </c>
       <c r="C3" s="4">
         <v>0.1</v>
@@ -2000,14 +2070,17 @@
       <c r="F3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L3" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">RANDBETWEEN(F4*100,(F4+1)*100)/100</f>
-        <v>2.09</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.39</v>
       </c>
       <c r="C4" s="5">
         <v>0.9</v>
@@ -2015,14 +2088,17 @@
       <c r="F4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L4" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">RANDBETWEEN(F5*100,(F5+1)*100)/100</f>
-        <v>3.75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.41</v>
       </c>
       <c r="C5" s="3">
         <v>0.65</v>
@@ -2030,14 +2106,17 @@
       <c r="F5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L5" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">RANDBETWEEN(F6*100,(F6+1)*100)/100</f>
-        <v>3.26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.25</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -2046,13 +2125,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">RANDBETWEEN(F7*100,(F7+1)*100)/100</f>
-        <v>2.68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.84</v>
       </c>
       <c r="C7" s="4">
         <v>0.05</v>
@@ -2061,13 +2140,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">RANDBETWEEN(F8*100,(F8+1)*100)/100</f>
-        <v>3.33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.47</v>
       </c>
       <c r="C8" s="4">
         <v>0.05</v>
@@ -2076,13 +2155,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">RANDBETWEEN(F9*100,(F9+1)*100)/100</f>
-        <v>3.98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.54</v>
       </c>
       <c r="C9" s="3">
         <v>0.4</v>
@@ -2091,13 +2170,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">RANDBETWEEN(F10*100,(F10+1)*100)/100</f>
-        <v>3.56</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.38</v>
       </c>
       <c r="C10" s="4">
         <v>0.2</v>
@@ -2106,13 +2185,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">RANDBETWEEN(F11*100,(F11+1)*100)/100</f>
-        <v>2.2999999999999998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C11" s="4">
         <v>0.1</v>
@@ -2121,13 +2200,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">RANDBETWEEN(F12*100,(F12+1)*100)/100</f>
-        <v>2.61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C12" s="4">
         <v>0.12</v>
@@ -2136,13 +2215,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">RANDBETWEEN(F13*100,(F13+1)*100)/100</f>
-        <v>3.45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.54</v>
       </c>
       <c r="C13" s="5">
         <v>0.75</v>
@@ -2151,13 +2230,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">RANDBETWEEN(F14*100,(F14+1)*100)/100</f>
-        <v>2.76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.31</v>
       </c>
       <c r="C14" s="4">
         <v>0.15</v>
@@ -2166,13 +2245,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">RANDBETWEEN(F15*100,(F15+1)*100)/100</f>
-        <v>3.33</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.83</v>
       </c>
       <c r="C15" s="3">
         <v>0.35</v>
@@ -2181,13 +2260,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">RANDBETWEEN(F16*100,(F16+1)*100)/100</f>
-        <v>3.09</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.26</v>
       </c>
       <c r="C16" s="4">
         <v>0.15</v>
@@ -2201,8 +2280,8 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <f ca="1">RANDBETWEEN(F17*100,(F17+1)*100)/100</f>
-        <v>3.8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.59</v>
       </c>
       <c r="C17" s="4">
         <v>0.05</v>
@@ -2216,8 +2295,8 @@
         <v>19</v>
       </c>
       <c r="B18" s="2">
-        <f ca="1">RANDBETWEEN(F18*100,(F18+1)*100)/100</f>
-        <v>1.03</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.73</v>
       </c>
       <c r="C18" s="5">
         <v>0.75</v>
@@ -2231,8 +2310,8 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <f ca="1">RANDBETWEEN(F19*100,(F19+1)*100)/100</f>
-        <v>3.51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.47</v>
       </c>
       <c r="C19" s="4">
         <v>0.15</v>
@@ -2246,8 +2325,8 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <f ca="1">RANDBETWEEN(F20*100,(F20+1)*100)/100</f>
-        <v>1.72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="C20" s="4">
         <v>0.3</v>
@@ -2261,8 +2340,8 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <f ca="1">RANDBETWEEN(F21*100,(F21+1)*100)/100</f>
-        <v>2.04</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.99</v>
       </c>
       <c r="C21" s="4">
         <v>0.15</v>
@@ -2276,8 +2355,8 @@
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <f ca="1">RANDBETWEEN(F22*100,(F22+1)*100)/100</f>
-        <v>3.26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2</v>
       </c>
       <c r="C22" s="4">
         <v>0.4</v>
@@ -2291,8 +2370,8 @@
         <v>24</v>
       </c>
       <c r="B23" s="2">
-        <f ca="1">RANDBETWEEN(F23*100,(F23+1)*100)/100</f>
-        <v>3.05</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.88</v>
       </c>
       <c r="C23" s="4">
         <v>0.15</v>
@@ -2306,8 +2385,8 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <f ca="1">RANDBETWEEN(F24*100,(F24+1)*100)/100</f>
-        <v>3.24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.63</v>
       </c>
       <c r="C24" s="3">
         <v>0.6</v>
@@ -2321,8 +2400,8 @@
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <f ca="1">RANDBETWEEN(F25*100,(F25+1)*100)/100</f>
-        <v>2.21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>0.35</v>
@@ -2336,8 +2415,8 @@
         <v>27</v>
       </c>
       <c r="B26" s="2">
-        <f ca="1">RANDBETWEEN(F26*100,(F26+1)*100)/100</f>
-        <v>3.39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.52</v>
       </c>
       <c r="C26" s="4">
         <v>0.03</v>
@@ -2351,8 +2430,8 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <f ca="1">RANDBETWEEN(F27*100,(F27+1)*100)/100</f>
-        <v>3.84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.18</v>
       </c>
       <c r="C27" s="3">
         <v>0.55000000000000004</v>
@@ -2366,8 +2445,8 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <f ca="1">RANDBETWEEN(F28*100,(F28+1)*100)/100</f>
-        <v>2.2200000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.17</v>
       </c>
       <c r="C28" s="4">
         <v>0.2</v>
@@ -2381,8 +2460,8 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <f ca="1">RANDBETWEEN(F29*100,(F29+1)*100)/100</f>
-        <v>3.22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.75</v>
       </c>
       <c r="C29" s="4">
         <v>0.15</v>
@@ -2396,8 +2475,8 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <f ca="1">RANDBETWEEN(F30*100,(F30+1)*100)/100</f>
-        <v>2.99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.98</v>
       </c>
       <c r="C30" s="4">
         <v>0.15</v>
@@ -2411,8 +2490,8 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <f ca="1">RANDBETWEEN(F31*100,(F31+1)*100)/100</f>
-        <v>2.11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.77</v>
       </c>
       <c r="C31" s="4">
         <v>0.1</v>
@@ -2426,8 +2505,8 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <f ca="1">RANDBETWEEN(F32*100,(F32+1)*100)/100</f>
-        <v>2.23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.84</v>
       </c>
       <c r="C32" s="4">
         <v>0.1</v>
@@ -2441,8 +2520,8 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <f ca="1">RANDBETWEEN(F33*100,(F33+1)*100)/100</f>
-        <v>2.06</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.71</v>
       </c>
       <c r="C33" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2456,8 +2535,8 @@
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <f ca="1">RANDBETWEEN(F34*100,(F34+1)*100)/100</f>
-        <v>3.47</v>
+        <f t="shared" ref="B34:B65" ca="1" si="1">RANDBETWEEN(F34*100,(F34+1)*100)/100</f>
+        <v>3.68</v>
       </c>
       <c r="C34" s="4">
         <v>0.02</v>
@@ -2471,8 +2550,8 @@
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <f ca="1">RANDBETWEEN(F35*100,(F35+1)*100)/100</f>
-        <v>3.73</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.76</v>
       </c>
       <c r="C35" s="4">
         <v>0.02</v>
@@ -2486,8 +2565,8 @@
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <f ca="1">RANDBETWEEN(F36*100,(F36+1)*100)/100</f>
-        <v>1.24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.83</v>
       </c>
       <c r="C36" s="4">
         <v>0.23</v>
@@ -2501,8 +2580,8 @@
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <f ca="1">RANDBETWEEN(F37*100,(F37+1)*100)/100</f>
-        <v>2.27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.41</v>
       </c>
       <c r="C37" s="4">
         <v>0.17</v>
@@ -2516,8 +2595,8 @@
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <f ca="1">RANDBETWEEN(F38*100,(F38+1)*100)/100</f>
-        <v>3.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.17</v>
       </c>
       <c r="C38" s="4">
         <v>0.1</v>
@@ -2531,8 +2610,8 @@
         <v>40</v>
       </c>
       <c r="B39" s="2">
-        <f ca="1">RANDBETWEEN(F39*100,(F39+1)*100)/100</f>
-        <v>2.68</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.65</v>
       </c>
       <c r="C39" s="3">
         <v>0.6</v>
@@ -2546,8 +2625,8 @@
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <f ca="1">RANDBETWEEN(F40*100,(F40+1)*100)/100</f>
-        <v>3.06</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.15</v>
       </c>
       <c r="C40" s="4">
         <v>0.05</v>
@@ -2561,8 +2640,8 @@
         <v>42</v>
       </c>
       <c r="B41" s="2">
-        <f ca="1">RANDBETWEEN(F41*100,(F41+1)*100)/100</f>
-        <v>3.06</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.42</v>
       </c>
       <c r="C41" s="4">
         <v>0.03</v>
@@ -2576,8 +2655,8 @@
         <v>43</v>
       </c>
       <c r="B42" s="2">
-        <f ca="1">RANDBETWEEN(F42*100,(F42+1)*100)/100</f>
-        <v>3.12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.48</v>
       </c>
       <c r="C42" s="4">
         <v>0.03</v>
@@ -2591,8 +2670,8 @@
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <f ca="1">RANDBETWEEN(F43*100,(F43+1)*100)/100</f>
-        <v>3.57</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.43</v>
       </c>
       <c r="C43" s="4">
         <v>0.08</v>
@@ -2606,8 +2685,8 @@
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <f ca="1">RANDBETWEEN(F44*100,(F44+1)*100)/100</f>
-        <v>3.99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.53</v>
       </c>
       <c r="C44" s="4">
         <v>0.05</v>
@@ -2621,8 +2700,8 @@
         <v>46</v>
       </c>
       <c r="B45" s="2">
-        <f ca="1">RANDBETWEEN(F45*100,(F45+1)*100)/100</f>
-        <v>1.02</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.42</v>
       </c>
       <c r="C45" s="3">
         <v>0.6</v>
@@ -2636,8 +2715,8 @@
         <v>47</v>
       </c>
       <c r="B46" s="2">
-        <f ca="1">RANDBETWEEN(F46*100,(F46+1)*100)/100</f>
-        <v>3.35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.86</v>
       </c>
       <c r="C46" s="4">
         <v>0.12</v>
@@ -2651,8 +2730,8 @@
         <v>48</v>
       </c>
       <c r="B47" s="2">
-        <f ca="1">RANDBETWEEN(F47*100,(F47+1)*100)/100</f>
-        <v>1.66</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.86</v>
       </c>
       <c r="C47" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2666,8 +2745,8 @@
         <v>49</v>
       </c>
       <c r="B48" s="2">
-        <f ca="1">RANDBETWEEN(F48*100,(F48+1)*100)/100</f>
-        <v>3.97</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.36</v>
       </c>
       <c r="C48" s="4">
         <v>0.17</v>
@@ -2681,8 +2760,8 @@
         <v>50</v>
       </c>
       <c r="B49" s="2">
-        <f ca="1">RANDBETWEEN(F49*100,(F49+1)*100)/100</f>
-        <v>3.81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.39</v>
       </c>
       <c r="C49" s="4">
         <v>0.08</v>
@@ -2696,8 +2775,8 @@
         <v>51</v>
       </c>
       <c r="B50" s="2">
-        <f ca="1">RANDBETWEEN(F50*100,(F50+1)*100)/100</f>
-        <v>2.14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C50" s="4">
         <v>0.1</v>
@@ -2711,8 +2790,8 @@
         <v>52</v>
       </c>
       <c r="B51" s="2">
-        <f ca="1">RANDBETWEEN(F51*100,(F51+1)*100)/100</f>
-        <v>2.5499999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C51" s="3">
         <v>0.4</v>
@@ -2726,8 +2805,8 @@
         <v>53</v>
       </c>
       <c r="B52" s="2">
-        <f ca="1">RANDBETWEEN(F52*100,(F52+1)*100)/100</f>
-        <v>2.0299999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.19</v>
       </c>
       <c r="C52" s="5">
         <v>0.85</v>
@@ -2741,8 +2820,8 @@
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <f ca="1">RANDBETWEEN(F53*100,(F53+1)*100)/100</f>
-        <v>3.59</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.55</v>
       </c>
       <c r="C53" s="3">
         <v>0.5</v>
@@ -2756,8 +2835,8 @@
         <v>55</v>
       </c>
       <c r="B54" s="2">
-        <f ca="1">RANDBETWEEN(F54*100,(F54+1)*100)/100</f>
-        <v>1.24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.88</v>
       </c>
       <c r="C54" s="3">
         <v>0.5</v>
@@ -2771,8 +2850,8 @@
         <v>56</v>
       </c>
       <c r="B55" s="2">
-        <f ca="1">RANDBETWEEN(F55*100,(F55+1)*100)/100</f>
-        <v>2.75</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.48</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
@@ -2786,8 +2865,8 @@
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <f ca="1">RANDBETWEEN(F56*100,(F56+1)*100)/100</f>
-        <v>3.21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.39</v>
       </c>
       <c r="C56" s="4">
         <v>0.03</v>
@@ -2801,8 +2880,8 @@
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <f ca="1">RANDBETWEEN(F57*100,(F57+1)*100)/100</f>
-        <v>2.0699999999999998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.64</v>
       </c>
       <c r="C57" s="4">
         <v>7.4999999999999997E-2</v>
@@ -2816,8 +2895,8 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <f ca="1">RANDBETWEEN(F58*100,(F58+1)*100)/100</f>
-        <v>3.69</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.96</v>
       </c>
       <c r="C58" s="4">
         <v>0.03</v>
@@ -2831,8 +2910,8 @@
         <v>60</v>
       </c>
       <c r="B59" s="2">
-        <f ca="1">RANDBETWEEN(F59*100,(F59+1)*100)/100</f>
-        <v>3.81</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.93</v>
       </c>
       <c r="C59" s="4">
         <v>0.02</v>
@@ -2846,8 +2925,8 @@
         <v>61</v>
       </c>
       <c r="B60" s="2">
-        <f ca="1">RANDBETWEEN(F60*100,(F60+1)*100)/100</f>
-        <v>3.37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.78</v>
       </c>
       <c r="C60" s="4">
         <v>0.12</v>
@@ -2861,8 +2940,8 @@
         <v>62</v>
       </c>
       <c r="B61" s="2">
-        <f ca="1">RANDBETWEEN(F61*100,(F61+1)*100)/100</f>
-        <v>3.83</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.03</v>
       </c>
       <c r="C61" s="3">
         <v>0.45</v>
@@ -2876,8 +2955,8 @@
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <f ca="1">RANDBETWEEN(F62*100,(F62+1)*100)/100</f>
-        <v>2.64</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.84</v>
       </c>
       <c r="C62" s="5">
         <v>0.7</v>
@@ -2891,8 +2970,8 @@
         <v>64</v>
       </c>
       <c r="B63" s="2">
-        <f ca="1">RANDBETWEEN(F63*100,(F63+1)*100)/100</f>
-        <v>1.35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.33</v>
       </c>
       <c r="C63" s="4">
         <v>0.25</v>
@@ -2906,8 +2985,8 @@
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <f ca="1">RANDBETWEEN(F64*100,(F64+1)*100)/100</f>
-        <v>2.76</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.38</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -2921,8 +3000,8 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <f ca="1">RANDBETWEEN(F65*100,(F65+1)*100)/100</f>
-        <v>3.07</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.47</v>
       </c>
       <c r="C65" s="4">
         <v>0.04</v>
@@ -2936,8 +3015,8 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
-        <f ca="1">RANDBETWEEN(F66*100,(F66+1)*100)/100</f>
-        <v>3.83</v>
+        <f t="shared" ref="B66:B71" ca="1" si="2">RANDBETWEEN(F66*100,(F66+1)*100)/100</f>
+        <v>3.77</v>
       </c>
       <c r="C66" s="4">
         <v>0.23</v>
@@ -2951,8 +3030,8 @@
         <v>68</v>
       </c>
       <c r="B67" s="2">
-        <f ca="1">RANDBETWEEN(F67*100,(F67+1)*100)/100</f>
-        <v>3.44</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.94</v>
       </c>
       <c r="C67" s="3">
         <v>0.65</v>
@@ -2966,8 +3045,8 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <f ca="1">RANDBETWEEN(F68*100,(F68+1)*100)/100</f>
-        <v>3.55</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.45</v>
       </c>
       <c r="C68" s="3">
         <v>0.65</v>
@@ -2981,8 +3060,8 @@
         <v>70</v>
       </c>
       <c r="B69" s="2">
-        <f ca="1">RANDBETWEEN(F69*100,(F69+1)*100)/100</f>
-        <v>3.67</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.49</v>
       </c>
       <c r="C69" s="4">
         <v>0.05</v>
@@ -2996,8 +3075,8 @@
         <v>71</v>
       </c>
       <c r="B70" s="2">
-        <f ca="1">RANDBETWEEN(F70*100,(F70+1)*100)/100</f>
-        <v>3.57</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.88</v>
       </c>
       <c r="C70" s="4">
         <v>0.01</v>
@@ -3011,8 +3090,8 @@
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <f ca="1">RANDBETWEEN(F71*100,(F71+1)*100)/100</f>
-        <v>3.66</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.35</v>
       </c>
       <c r="C71" s="9">
         <v>0.01</v>

--- a/Risk Matrix.xlsx
+++ b/Risk Matrix.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrs/Google Drive/Education/Edith Cowan University/Project Methods &amp; Professionalism/Assignment 2/Team-Awesome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpwagner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Matrix" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -262,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -443,7 +443,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,15 +451,15 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -480,6 +480,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -487,7 +490,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -585,6 +588,4731 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.508402742178017E-2"/>
+                  <c:y val="-3.1343793432121098E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17C7D61A-6FC6-4326-8961-85C1D1557AF6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0204171834040078E-2"/>
+                  <c:y val="-4.9371271021479007E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{87DC910B-A676-4DDB-AB1F-1A775F07BCB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.48591134498664E-2"/>
+                      <c:h val="1.8733430211597457E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA241784-71CD-4C78-89E6-F0FD125954BB}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3715846994535519E-2"/>
+                  <c:y val="-0.19082451803707648"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30CBC12F-8F9B-49F8-B197-2E699BF531C1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4141572991514939E-2"/>
+                  <c:y val="-3.9533607993836269E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{501E6210-F537-491A-BD18-4C174A1F8462}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.7880381820764164E-2"/>
+                      <c:h val="1.8421334562997403E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8226579694739521E-2"/>
+                  <c:y val="1.2877117018316547E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1332EB94-5B42-416C-A85E-98DB83116E71}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7819407170131062E-3"/>
+                  <c:y val="-2.1912940694846533E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{C6DC7835-5C95-43C9-8837-1EFB41385FDF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.48591134498664E-2"/>
+                      <c:h val="1.6426804875297841E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3715846994535519E-2"/>
+                  <c:y val="-8.3776617674814063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A77193BA-1312-4C27-8180-9C7071529560}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4395097580139976E-2"/>
+                  <c:y val="-0.1223169921313265"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{BAEBB876-7F83-4A6E-8184-EA7D74497881}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.7856932595443688E-2"/>
+                      <c:h val="2.0916493822634039E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9180327868852458E-2"/>
+                  <c:y val="-6.9813848062345044E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B708DBC1-A862-401B-A219-6E9395868B21}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7861696183238123E-3"/>
+                  <c:y val="5.1508468073266939E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{5500E1E2-7F22-44D6-A8FA-320445367836}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6081329506523534E-2"/>
+                      <c:h val="2.3491917226297388E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D6B9112-486E-414A-8E32-E1590942C6D3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5402285481380446E-2"/>
+                  <c:y val="-7.3234090980988917E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7549A28F-F324-42AF-8DA3-DEAC2F4AE1BA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3715846994535519E-2"/>
+                  <c:y val="2.3271282687448266E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4FE7B49C-D96C-490F-9AC5-FA997D5D5106}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8969469970372996E-3"/>
+                  <c:y val="-9.0737372787285706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A19CDF06-A3C3-4B9E-B4CC-CD77C50EDDC9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6081329506523534E-2"/>
+                      <c:h val="2.3491917226297388E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2281954030426698E-2"/>
+                  <c:y val="-4.5796255173266492E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A746913-56B6-4950-AF48-F70CD3017B70}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7322404371584699E-3"/>
+                  <c:y val="-4.6542565374896615E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4934CFC0-4877-4C42-BDF6-F089FFD223CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0499732531415292E-2"/>
+                  <c:y val="-0.14416798071253242"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{0DBE0DBE-CAA7-4C55-9382-B77B685A2623}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.608129582647969E-2"/>
+                      <c:h val="1.4867049534307493E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4644808743168896E-3"/>
+                  <c:y val="-9.7739387287283069E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DAB023DB-49EA-4BF1-B346-9CD0AC742A94}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2189167457902172E-2"/>
+                  <c:y val="-2.5326145941741082E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{8EEC4DE7-5E77-4BF4-9AA4-124B2DFDC68C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6081329506523534E-2"/>
+                      <c:h val="2.0916493822634039E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.688273842264764E-2"/>
+                  <c:y val="-5.5548635379489841E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{93DB0076-D3DF-4A3B-837D-4524CE03A02B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.7966267273030376E-2"/>
+                      <c:h val="2.2347433877911788E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6438832691067902E-2"/>
+                  <c:y val="-4.8299659521034009E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E7F565DA-ED21-4BCB-ADCD-B143881AB634}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111792287240249E-2"/>
+                      <c:h val="1.496976708413569E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11748633879781421"/>
+                  <c:y val="-0.21969703355279191"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0CB3756C-D543-4192-AD66-1508387C91BF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0054644808743168E-2"/>
+                  <c:y val="9.3085130749792529E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{AE87B5DE-0292-4A21-9C27-E1C5F717BEEC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.5192117378770278E-2"/>
+                      <c:h val="3.7799892622270431E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.335504309616562E-3"/>
+                  <c:y val="-0.21023141499961459"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6CE0DF3F-6F61-471B-A2CD-A53F8A513C8F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9192964648570966E-2"/>
+                      <c:h val="1.5355679465556344E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1109111867362705"/>
+                  <c:y val="-5.9392322110557283E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{77B62504-DCD2-4F01-A3A3-499769A4706B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9029601591171014E-2"/>
+                  <c:y val="-6.1336142929219836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E995866-D0C9-4600-B539-EC723BA554FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0027336316706434E-3"/>
+                  <c:y val="-7.072038863501523E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{6B9157B9-B461-4B1D-873F-F77F8B82259D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111743368789966E-2"/>
+                      <c:h val="2.1008028527771928E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3099115281334708E-2"/>
+                  <c:y val="-0.19347985030329573"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{1A1599D1-4E90-49F6-B9DC-9B99DC6B5030}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.5192117378770278E-2"/>
+                      <c:h val="4.2454149159760111E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5819805872535954E-2"/>
+                  <c:y val="-0.11434706363861598"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB9DE133-4A4C-40AC-8629-A7C2D33A5075}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4019779597499618E-2"/>
+                  <c:y val="-2.7329631333377145E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{B2065AFB-23B9-4207-9D78-50FAA6EBB04A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.5192144343649691E-2"/>
+                      <c:h val="2.4821895822592779E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.679254427485522E-2"/>
+                  <c:y val="-2.189109893113864E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2280EFC3-CDB3-4F95-93DB-69C9F0F1BF87}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.9653668743170889E-2"/>
+                      <c:h val="2.3491917226297388E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6107883277235478E-2"/>
+                  <c:y val="1.0577579059664784E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{C7CEDD19-3D69-4DC9-8AA8-E62EDFB97D2A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9170123273515841E-2"/>
+                      <c:h val="1.5298515920138648E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.6606312881170202E-2"/>
+                  <c:y val="-8.834082803588085E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{899B8AC7-FE60-41DA-B5C1-AE1A932AF053}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9170123273515841E-2"/>
+                      <c:h val="1.7446708748692901E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12295081967213115"/>
+                  <c:y val="-4.6542565374896781E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{421CB64E-05AF-4C59-9E87-3DA3E2A397D8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3745758022960637E-2"/>
+                  <c:y val="0.10743500401928283"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A0A19660-FD97-4E74-84D3-FD6837E9A3B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.5192078633093618E-2"/>
+                      <c:h val="1.9771951327336716E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0366734577748946E-2"/>
+                  <c:y val="-4.5816657271944998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{3A1CCFBB-16B4-4237-A82C-A9895563DAE7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.2198480316673279E-2"/>
+                      <c:h val="1.8733430211597457E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.3271282687448266E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F5C13A70-9C2D-4437-B0A4-63D1B9BD1AE0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9251892231425005E-2"/>
+                  <c:y val="-5.6061710666563895E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3F2EA9AF-E90A-49B2-A423-F57D92BD73AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9192964648570966E-2"/>
+                      <c:h val="1.7511899106578032E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1877848019522183E-2"/>
+                  <c:y val="5.1733142182481375E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{258E1CC2-2CD4-465A-A92C-996B1A0BFC77}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111743368789966E-2"/>
+                      <c:h val="2.1008028527771928E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2055854040296375E-3"/>
+                  <c:y val="-2.7934589464269563E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C31D3A71-CAFD-4C92-A4DD-DBCC095ADE83}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9192964648570966E-2"/>
+                      <c:h val="1.7511899106578032E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8043208250430563E-2"/>
+                  <c:y val="-5.0996716773589128E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{32F87809-3FC1-4A44-B49A-3D3B78DC451E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.2198480316673279E-2"/>
+                      <c:h val="1.6426804875297841E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.6994836574248743E-2"/>
+                  <c:y val="-1.8603356687566911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{3E98382F-F787-410D-A4DE-F60E9209B21F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.2198480316673279E-2"/>
+                      <c:h val="1.8733430211597457E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE9D460A-0200-4A7C-A2F1-D601C7988EE3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0794910986692345E-2"/>
+                  <c:y val="-9.4522664923851099E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{5409A2ED-6A82-4812-8718-A60F916671C5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111743368789966E-2"/>
+                      <c:h val="2.1008028527771928E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30054644808743169"/>
+                  <c:y val="4.6542565374896698E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{506CF19C-8F16-42F4-B636-7E512BD4C642}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4878368066884512E-2"/>
+                  <c:y val="-5.9221438697461153E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49873309-0747-438A-A395-A42AEE3EDFEA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="2.9192964648570966E-2"/>
+                      <c:h val="2.1824338388621405E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6176263427757201E-2"/>
+                  <c:y val="-0.11489007142628403"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E1D6047D-B0E5-482D-8AC8-81AC8DF9E888}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.1776287977623788E-2"/>
+                      <c:h val="1.842141632051135E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30054644808743169"/>
+                  <c:y val="-4.6542565374896698E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B2F6DEB-6414-419F-9308-BDEE8A4419A7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6448087431693992E-2"/>
+                  <c:y val="-8.3776617674814063E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5406B3AB-81BA-44B9-BB68-F6345DCC1AF2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4644808743169399E-3"/>
+                  <c:y val="6.0505334987365711E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4BC65980-4FBD-4F4D-BE09-BE100583C5C6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11202185792349727"/>
+                  <c:y val="-2.7925539224938106E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{44892DBE-28CF-48DB-B0E7-4D05016A7486}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{588D0851-3F7B-43EF-8E09-01F21103AAE4}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1066557039920329"/>
+                  <c:y val="5.0111351574090676E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{DB55B546-A069-40C8-9E39-3665E64B8928}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="5.5192117378770278E-2"/>
+                      <c:h val="3.7799892622270431E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8015181092650557E-3"/>
+                  <c:y val="-3.6906585434345829E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{9F86D5C1-0E8C-4AF1-A95F-86E6DEBD4E1D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.2198480316673279E-2"/>
+                      <c:h val="1.4120179538998223E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7155646164531865E-3"/>
+                  <c:y val="-0.22073419299126104"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E27B6ABC-851A-469A-AA97-88DB083BB7DA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2344216283630743E-2"/>
+                  <c:y val="3.0144629705763774E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{932B87CE-A764-479D-9A8B-797A7A76EEA0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.2198480316673279E-2"/>
+                      <c:h val="1.6426804875297841E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="57"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.218193241840534E-2"/>
+                  <c:y val="-7.356962349605542E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{4F240097-BBE4-481D-8160-7C5999C3132A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111792287240249E-2"/>
+                      <c:h val="1.2383152420280144E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="58"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3323971981945641E-2"/>
+                  <c:y val="-3.4823796107870904E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{FB67A27A-771D-47BB-8EF3-331468F05C33}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111713203794228E-2"/>
+                      <c:h val="1.6674903316981717E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="59"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3962474560205194E-2"/>
+                  <c:y val="-3.5630256209827751E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8605DAD1-993C-4550-AD80-8ED42622B9C3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A02D21C9-2805-45AC-AEF8-97F5BEF6827B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="61"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7322404371584699E-3"/>
+                  <c:y val="-6.0505334987365711E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A3089CC2-4697-4FB1-96DA-3BEEF201A080}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="62"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7322404371583698E-3"/>
+                  <c:y val="-3.7234052299917358E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{979BA78A-131F-44F6-95E6-F5A0CBF39A9E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="63"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12498724098633282"/>
+                  <c:y val="-2.1311939106999248E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD7B0F19-F3F5-437A-B2A5-46B018DFCF5B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="64"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0973605199418868E-2"/>
+                  <c:y val="-5.0040255092668365E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{44EBD310-1A20-40AF-8431-978528AE2A04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="65"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0928961748633779E-2"/>
+                  <c:y val="-0.19152595480973439"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ADF67F7F-00D3-4613-9365-D5D8554F9CA0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="66"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.5573770491803282E-2"/>
+                  <c:y val="-8.4408057360963337E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B42D46FF-BAD9-4A9A-A18C-7E466224098A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="67"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9267982528259118E-2"/>
+                  <c:y val="-4.3543327620766285E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D1A5F5F3-4668-4ECF-929B-BD860FF8A0A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6111743368789966E-2"/>
+                      <c:h val="2.1008028527771928E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="68"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0573242428087138E-2"/>
+                  <c:y val="-1.0042805204401133E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{9850112E-1F62-4DDA-BAB4-67C74EFD973E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6081329506523534E-2"/>
+                      <c:h val="2.0916493822634039E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15193097786104878"/>
+                  <c:y val="-7.7302171941368483E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{15E3B283-B5C9-4299-B7BA-B9D328DAECFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.6081329506523534E-2"/>
+                      <c:h val="2.0916493822634039E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Risk Matrix'!$B$2:$B$71</c:f>
@@ -592,214 +5320,214 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.16</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.39</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.25</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.84</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.47</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.54</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.38</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.03</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.55</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.54</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.31</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.83</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.26</c:v>
+                  <c:v>3.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.59</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.73</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.47</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.99</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.88</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.84</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.83</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.41</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.17</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.65</c:v>
+                  <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>3.15</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="52">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>3.42</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.03</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.43</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.96</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.93</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.78</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.03</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.84</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.33</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.38</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.47</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.77</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.94</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.45</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.49</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.35</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +5614,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.2</c:v>
@@ -904,7 +5632,7 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.02</c:v>
@@ -946,7 +5674,7 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.07</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.17</c:v>
@@ -976,7 +5704,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.075</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.03</c:v>
@@ -997,7 +5725,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.04</c:v>
@@ -1024,6 +5752,226 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Risk Matrix'!$A$2:$A$71</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="70"/>
+                  <c:pt idx="0">
+                    <c:v>R1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>R2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>R3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>R4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>R5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>R6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>R7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>R8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>R9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>R10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>R11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>R12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>R13</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>R14</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>R15</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>R16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>R17</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>R18</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>R19</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>R20</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>R21</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>R22</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>R23</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>R24</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>R25</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>R26</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>R27</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>R28</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>R29</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>R30</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>R31</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>R32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>R33</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>R34</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>R35</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>R36</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>R37</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>R38</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>R39</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>R40</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>R41</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>R42</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>R43</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>R44</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>R45</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>R46</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>R47</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>R48</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>R49</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>R50</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>R51</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>R52</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>R53</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>R54</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>R55</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>R56</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>R57</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>R58</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>R59</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>R60</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>R61</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>R62</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>R63</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>R64</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>R65</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>R66</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>R67</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>R68</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>R69</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>R70</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1033,11 +5981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110972336"/>
-        <c:axId val="2111359200"/>
+        <c:axId val="137420288"/>
+        <c:axId val="137421072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110972336"/>
+        <c:axId val="137420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,12 +6009,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111359200"/>
+        <c:crossAx val="137421072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111359200"/>
+        <c:axId val="137421072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +6038,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110972336"/>
+        <c:crossAx val="137420288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1110,7 +6058,7 @@
               <a:srgbClr val="FF0000"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="0" scaled="0"/>
+          <a:lin ang="18900000" scaled="0"/>
         </a:gradFill>
         <a:ln>
           <a:noFill/>
@@ -1716,15 +6664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>444498</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28669</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2011,20 +6959,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2038,13 +6986,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(F2*100,(F2+1)*100)/100</f>
-        <v>3.8</v>
+        <v>3.02</v>
       </c>
       <c r="C2" s="3">
         <v>0.4</v>
@@ -2056,13 +7004,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.16</v>
+        <v>3.02</v>
       </c>
       <c r="C3" s="4">
         <v>0.1</v>
@@ -2074,13 +7022,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="C4" s="5">
         <v>0.9</v>
@@ -2092,7 +7040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,13 +7058,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -2125,13 +7073,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.84</v>
+        <v>2.99</v>
       </c>
       <c r="C7" s="4">
         <v>0.05</v>
@@ -2140,13 +7088,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.47</v>
+        <v>3.77</v>
       </c>
       <c r="C8" s="4">
         <v>0.05</v>
@@ -2155,13 +7103,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.54</v>
+        <v>3.78</v>
       </c>
       <c r="C9" s="3">
         <v>0.4</v>
@@ -2170,13 +7118,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.38</v>
+        <v>3.82</v>
       </c>
       <c r="C10" s="4">
         <v>0.2</v>
@@ -2185,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2200,13 +7148,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5499999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C12" s="4">
         <v>0.12</v>
@@ -2215,13 +7163,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="C13" s="5">
         <v>0.75</v>
@@ -2230,13 +7178,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.31</v>
+        <v>2.93</v>
       </c>
       <c r="C14" s="4">
         <v>0.15</v>
@@ -2245,13 +7193,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="C15" s="3">
         <v>0.35</v>
@@ -2260,13 +7208,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="C16" s="4">
         <v>0.15</v>
@@ -2275,13 +7223,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.59</v>
+        <v>3.04</v>
       </c>
       <c r="C17" s="4">
         <v>0.05</v>
@@ -2290,13 +7238,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="C18" s="5">
         <v>0.75</v>
@@ -2305,13 +7253,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="C19" s="4">
         <v>0.15</v>
@@ -2320,13 +7268,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="C20" s="4">
         <v>0.3</v>
@@ -2335,13 +7283,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.99</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C21" s="4">
         <v>0.15</v>
@@ -2350,13 +7298,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="C22" s="4">
         <v>0.4</v>
@@ -2365,13 +7313,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.88</v>
+        <v>3.73</v>
       </c>
       <c r="C23" s="4">
         <v>0.15</v>
@@ -2380,13 +7328,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.63</v>
+        <v>3.79</v>
       </c>
       <c r="C24" s="3">
         <v>0.6</v>
@@ -2395,13 +7343,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C25" s="3">
         <v>0.35</v>
@@ -2410,13 +7358,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="C26" s="4">
         <v>0.03</v>
@@ -2425,13 +7373,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="C27" s="3">
         <v>0.55000000000000004</v>
@@ -2440,13 +7388,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.17</v>
+        <v>2.41</v>
       </c>
       <c r="C28" s="4">
         <v>0.2</v>
@@ -2455,13 +7403,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="C29" s="4">
         <v>0.15</v>
@@ -2470,13 +7418,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="C30" s="4">
         <v>0.15</v>
@@ -2485,13 +7433,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="C31" s="4">
         <v>0.1</v>
@@ -2500,13 +7448,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="C32" s="4">
         <v>0.1</v>
@@ -2515,13 +7463,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.71</v>
+        <v>2.06</v>
       </c>
       <c r="C33" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2530,13 +7478,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ref="B34:B65" ca="1" si="1">RANDBETWEEN(F34*100,(F34+1)*100)/100</f>
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="C34" s="4">
         <v>0.02</v>
@@ -2545,7 +7493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2560,13 +7508,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.83</v>
+        <v>1.29</v>
       </c>
       <c r="C36" s="4">
         <v>0.23</v>
@@ -2575,13 +7523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.41</v>
+        <v>2.89</v>
       </c>
       <c r="C37" s="4">
         <v>0.17</v>
@@ -2590,13 +7538,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="C38" s="4">
         <v>0.1</v>
@@ -2605,13 +7553,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="C39" s="3">
         <v>0.6</v>
@@ -2620,13 +7568,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="C40" s="4">
         <v>0.05</v>
@@ -2635,13 +7583,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="C41" s="4">
         <v>0.03</v>
@@ -2650,13 +7598,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.48</v>
+        <v>3.87</v>
       </c>
       <c r="C42" s="4">
         <v>0.03</v>
@@ -2665,13 +7613,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.43</v>
+        <v>3.32</v>
       </c>
       <c r="C43" s="4">
         <v>0.08</v>
@@ -2680,13 +7628,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="C44" s="4">
         <v>0.05</v>
@@ -2695,13 +7643,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="C45" s="3">
         <v>0.6</v>
@@ -2710,13 +7658,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.86</v>
+        <v>3.79</v>
       </c>
       <c r="C46" s="4">
         <v>0.12</v>
@@ -2725,13 +7673,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="C47" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2740,13 +7688,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="C48" s="4">
         <v>0.17</v>
@@ -2755,13 +7703,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="C49" s="4">
         <v>0.08</v>
@@ -2770,13 +7718,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0299999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="C50" s="4">
         <v>0.1</v>
@@ -2785,13 +7733,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="C51" s="3">
         <v>0.4</v>
@@ -2800,13 +7748,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.19</v>
+        <v>2.72</v>
       </c>
       <c r="C52" s="5">
         <v>0.85</v>
@@ -2815,13 +7763,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="C53" s="3">
         <v>0.5</v>
@@ -2830,13 +7778,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="C54" s="3">
         <v>0.5</v>
@@ -2845,13 +7793,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.48</v>
+        <v>2.87</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
@@ -2860,13 +7808,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="C56" s="4">
         <v>0.03</v>
@@ -2875,13 +7823,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="C57" s="4">
         <v>7.4999999999999997E-2</v>
@@ -2890,13 +7838,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.96</v>
+        <v>3.42</v>
       </c>
       <c r="C58" s="4">
         <v>0.03</v>
@@ -2905,13 +7853,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.93</v>
+        <v>3.24</v>
       </c>
       <c r="C59" s="4">
         <v>0.02</v>
@@ -2920,13 +7868,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
       <c r="C60" s="4">
         <v>0.12</v>
@@ -2935,13 +7883,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.03</v>
+        <v>3.34</v>
       </c>
       <c r="C61" s="3">
         <v>0.45</v>
@@ -2950,13 +7898,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.84</v>
+        <v>2.69</v>
       </c>
       <c r="C62" s="5">
         <v>0.7</v>
@@ -2965,13 +7913,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="C63" s="4">
         <v>0.25</v>
@@ -2980,13 +7928,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -2995,13 +7943,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="C65" s="4">
         <v>0.04</v>
@@ -3010,13 +7958,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" ref="B66:B71" ca="1" si="2">RANDBETWEEN(F66*100,(F66+1)*100)/100</f>
-        <v>3.77</v>
+        <v>3.15</v>
       </c>
       <c r="C66" s="4">
         <v>0.23</v>
@@ -3025,13 +7973,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.94</v>
+        <v>3.44</v>
       </c>
       <c r="C67" s="3">
         <v>0.65</v>
@@ -3040,13 +7988,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="C68" s="3">
         <v>0.65</v>
@@ -3055,13 +8003,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.49</v>
+        <v>3.59</v>
       </c>
       <c r="C69" s="4">
         <v>0.05</v>
@@ -3070,13 +8018,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="C70" s="4">
         <v>0.01</v>
@@ -3085,13 +8033,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="C71" s="9">
         <v>0.01</v>
